--- a/path1_experiments.xlsx
+++ b/path1_experiments.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1D2E827-B8DB-4F2F-9C15-77A9C15DE488}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9655A88-FB16-4A65-B448-55288994C321}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="454">
   <si>
     <t>Number of estimated location: 129</t>
   </si>
@@ -8041,6 +8041,1368 @@
   </si>
   <si>
     <t>Overall Mean Distance Error: 3.3744644076624515</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE6DB74"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"ED23C0D875CD"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF92672"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA6E22E"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Beacon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE6DB74"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"ED23C0D875CD"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFAE81FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>55.9444578385393</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF92672"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFAE81FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3.1866151839494705</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF92672"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFAE81FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">93 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF92672"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFAE81FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">6 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF92672"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFAE81FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE6DB74"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"E7311A8EB6D7"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF92672"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA6E22E"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Beacon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE6DB74"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"E7311A8EB6D7"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFAE81FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>55.94444244275808</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF92672"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFAE81FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3.18672649562358860</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF92672"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFAE81FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">94 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF92672"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFAE81FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">7 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF92672"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFAE81FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE6DB74"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"C7BC919B2D17"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF92672"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA6E22E"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Beacon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE6DB74"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"C7BC919B2D17"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFAE81FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>55.94452336441765</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF92672"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFAE81FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3.1866540759801865</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF92672"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFAE81FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">61 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF92672"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFAE81FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE6DB74"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"FE12DEF2C943"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF92672"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA6E22E"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Beacon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE6DB74"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"FE12DEF2C943"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFAE81FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>55.94448393625199</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF92672"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFAE81FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3.1868280842900276</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF92672"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFAE81FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">87 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF92672"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFAE81FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE6DB74"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"E0B83A2F802A"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF92672"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA6E22E"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Beacon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE6DB74"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"E0B83A2F802A"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFAE81FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>55.94443774892113</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF92672"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFAE81FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3.1867992505431175</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF92672"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFAE81FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">96 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF92672"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFAE81FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE6DB74"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"F15576CB0CF8"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF92672"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA6E22E"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Beacon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE6DB74"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"F15576CB0CF8"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFAE81FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>55.944432116316044</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF92672"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFAE81FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3.186904862523079</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF92672"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFAE81FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">94 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF92672"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFAE81FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE6DB74"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"FD8185988862"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF92672"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA6E22E"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Beacon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE6DB74"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"FD8185988862"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFAE81FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>55.94449107087541</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF92672"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFAE81FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3.186941407620907</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF92672"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFAE81FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">90 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF92672"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFAE81FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Number of estimated location: 112</t>
+  </si>
+  <si>
+    <t>Number of times the interval between timestamps is bigger than 3 seconds: 508</t>
+  </si>
+  <si>
+    <t>Test Point: 0     Number of Estimated Locations: 8     Mean Distance Error: 3.1570353838851464</t>
+  </si>
+  <si>
+    <t>Test Point: 1     Number of Estimated Locations: 5     Mean Distance Error: 1.0454290095323688</t>
+  </si>
+  <si>
+    <t>Test Point: 2     Number of Estimated Locations: 6     Mean Distance Error: 3.867109226134572</t>
+  </si>
+  <si>
+    <t>Test Point: 3     Number of Estimated Locations: 3     Mean Distance Error: 4.209911370221693</t>
+  </si>
+  <si>
+    <t>Test Point: 4     Number of Estimated Locations: 6     Mean Distance Error: 2.550590978083412</t>
+  </si>
+  <si>
+    <t>Test Point: 5     Number of Estimated Locations: 6     Mean Distance Error: 4.659396844781046</t>
+  </si>
+  <si>
+    <t>Test Point: 7     Number of Estimated Locations: 10     Mean Distance Error: 5.735763376893904</t>
+  </si>
+  <si>
+    <t>Test Point: 8     Number of Estimated Locations: 6     Mean Distance Error: 3.553800402363198</t>
+  </si>
+  <si>
+    <t>Test Point: 9     Number of Estimated Locations: 7     Mean Distance Error: 5.096912579179528</t>
+  </si>
+  <si>
+    <t>Test Point: 10     Number of Estimated Locations: 11     Mean Distance Error: 3.244255123105696</t>
+  </si>
+  <si>
+    <t>Test Point: 11     Number of Estimated Locations: 9     Mean Distance Error: 2.6440261327014656</t>
+  </si>
+  <si>
+    <t>Test Point: 12     Number of Estimated Locations: 8     Mean Distance Error: 1.3556790824841536</t>
+  </si>
+  <si>
+    <t>Test Point: 13     Number of Estimated Locations: 4     Mean Distance Error: 2.233608023472335</t>
+  </si>
+  <si>
+    <t>Test Point: 14     Number of Estimated Locations: 6     Mean Distance Error: 4.753636728148626</t>
+  </si>
+  <si>
+    <t>Overall Mean Distance Error: 3.3832264025078826</t>
   </si>
 </sst>
 </file>
@@ -9858,13 +11220,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5BD4919-85D4-4940-917A-216F7D1E0618}">
-  <dimension ref="A1:W124"/>
+  <dimension ref="A1:W159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="L110" sqref="L110"/>
+    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
+      <selection activeCell="O149" sqref="O149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="5" max="5" width="34.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="2" t="s">
@@ -11015,7 +12380,168 @@
       <c r="N124" s="1"/>
       <c r="O124" s="1"/>
     </row>
+    <row r="127" spans="1:15">
+      <c r="A127" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15">
+      <c r="A128" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159" t="s">
+        <v>453</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>